--- a/ITshka/базеай.xlsx
+++ b/ITshka/базеай.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB35EAF-D210-47AA-A629-3BA644656C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7032"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9" sheetId="1" r:id="rId1"/>
     <sheet name="10" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -379,34 +388,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="\ \+\7&quot; &quot;\(#\)&quot; &quot;000\-00\-00"/>
-    <numFmt numFmtId="165" formatCode="00&quot; &quot;00&quot; &quot;000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\ \+\7&quot; &quot;\(#\)&quot; &quot;000\-00\-00"/>
+    <numFmt numFmtId="166" formatCode="00&quot; &quot;00&quot; &quot;000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,6 +424,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -440,7 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -449,27 +449,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -478,192 +509,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.89999084444715716"/>
       </left>
       <right/>
       <top style="thin">
@@ -675,8 +521,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </left>
       <right/>
       <top style="thin">
@@ -686,99 +532,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.89999084444715716"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,187 +548,314 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.89999084444715716"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.89999084444715716"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.89999084444715716"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -977,22 +866,88 @@
   <dxfs count="2">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor theme="0"/>
           <bgColor rgb="FFFC60DE"/>
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFC60DE"/>
       <color rgb="FFFA0ECD"/>
@@ -1016,7 +971,7 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="14407A"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1273,3097 +1228,3098 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AN59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AN53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q13:Q14"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="13.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="13.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="13.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="8.85546875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R1" s="1" t="s">
+    <row r="1" spans="2:40" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="2:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="C2" s="52" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+    </row>
+    <row r="2" spans="2:40" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="52" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="52" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="52" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="54"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-    </row>
-    <row r="3" spans="2:40" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="9"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+    </row>
+    <row r="3" spans="2:40" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-    </row>
-    <row r="4" spans="2:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20">
+      <c r="W3" s="9"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+    </row>
+    <row r="4" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="15">
         <v>37739</v>
       </c>
-      <c r="G4" s="22" t="str">
+      <c r="G4" s="14" t="str">
         <f>IF(RIGHT(E4)="ч","М",IF(RIGHT(E4)="а","Ж"))</f>
         <v>М</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="32">
         <v>8759284320</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="16">
         <v>7179540789</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="16">
         <v>7198566212</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="34">
         <v>7918143770</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="14">
         <v>2020</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="36">
         <v>20</v>
       </c>
-      <c r="Q4" s="36" t="str">
+      <c r="Q4" s="17" t="str">
         <f t="shared" ref="Q4:Q5" si="0">IF(AND(P4 &gt; 17,P4 &lt; 28), "Годен", "Не годен")</f>
         <v>Годен</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="18">
         <v>3</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="14">
         <v>2</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="14">
         <f xml:space="preserve"> IF(OR(R4="Абитуриент",R4="Окончил"),"-",IF(M4="МИРЭА",U4+450,IF(M4="РЭУ",450+50,IF(M4="РУДН",300+100,IF(M4="МПТ",300+200,IF(M4="МГУ",1000))))))</f>
         <v>500</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="14">
         <f>IF(OR(R4="Абитуриент",R4="Окончил"),"-",IF(AND(NOT(I4="г. Химки"),NOT(I4="г. Москва"), O4="ОЧНО"),300,50))</f>
         <v>50</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="23">
         <f>IF(OR(R4="Абитуриент",R4="Окончил"),"-",(U4+IF(M4="МИРЭА",U4+400,IF(M4="РЭУ",450,IF(M4="РУДН",300,IF(M4="МПТ",300,IF(M4="МГУ",1000)))))))</f>
         <v>500</v>
       </c>
+      <c r="W4" s="9"/>
       <c r="X4"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4"/>
+      <c r="Z4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-    </row>
-    <row r="5" spans="2:40" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+    </row>
+    <row r="5" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <v>38994</v>
       </c>
-      <c r="G5" s="22" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" ref="G5:G31" si="1">IF(RIGHT(E5)="ч","М",IF(RIGHT(E5)="а","Ж"))</f>
         <v>М</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="32">
         <v>3896305440</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="16">
         <v>7843619212</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="16">
         <v>7762064317</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="34">
         <v>7608274149</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="14">
         <v>2022</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="36">
         <v>16</v>
       </c>
-      <c r="Q5" s="36" t="str">
+      <c r="Q5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Не годен</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="18">
         <v>1</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="14">
         <v>3</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="14">
         <f t="shared" ref="T5:T31" si="2" xml:space="preserve"> IF(OR(R5="Абитуриент",R5="Окончил"),"-",IF(M5="МИРЭА",U5+450,IF(M5="РЭУ",450+50,IF(M5="РУДН",300+100,IF(M5="МПТ",300+200,IF(M5="МГУ",1000))))))</f>
         <v>500</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="14">
         <f t="shared" ref="U5:U31" si="3">IF(OR(R5="Абитуриент",R5="Окончил"),"-",IF(AND(NOT(I5="г. Химки"),NOT(I5="г. Москва"), O5="ОЧНО"),300,50))</f>
         <v>300</v>
       </c>
-      <c r="V5" s="34">
+      <c r="V5" s="23">
         <f t="shared" ref="V5:V31" si="4">IF(OR(R5="Абитуриент",R5="Окончил"),"-",(U5+IF(M5="МИРЭА",U5+400,IF(M5="РЭУ",450,IF(M5="РУДН",300,IF(M5="МПТ",300,IF(M5="МГУ",1000)))))))</f>
         <v>600</v>
       </c>
+      <c r="W5" s="9"/>
       <c r="X5"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="16" t="s">
+      <c r="Y5"/>
+      <c r="Z5" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B6" s="20">
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="15">
         <v>37695</v>
       </c>
-      <c r="G6" s="22" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Ж</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="32">
         <v>7739289737</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="16">
         <v>7654967009</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="16">
         <v>7443057556</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="34">
         <v>7336774973</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="14">
         <v>2019</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="36">
         <v>20</v>
       </c>
-      <c r="Q6" s="36" t="str">
+      <c r="Q6" s="17" t="str">
         <f>IF(AND(P6 &gt; 17,P6 &lt; 28), "Годен", "Не годен")</f>
         <v>Годен</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="18">
         <v>4</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="14">
         <v>2</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="14">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="14">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="23">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
+      <c r="W6" s="9"/>
       <c r="X6"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="16" t="s">
+      <c r="Y6"/>
+      <c r="Z6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-    </row>
-    <row r="7" spans="2:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20">
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+    </row>
+    <row r="7" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="15">
         <v>38227</v>
       </c>
-      <c r="G7" s="22" t="str">
+      <c r="G7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="32">
         <v>7123351910</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="16">
         <v>7998391253</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="16">
         <v>7723000711</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="34">
         <v>7063042267</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="14">
         <v>2018</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="36">
         <v>18</v>
       </c>
-      <c r="Q7" s="36" t="str">
+      <c r="Q7" s="17" t="str">
         <f t="shared" ref="Q7:Q30" si="5">IF(AND(P7 &gt; 17,P7 &lt; 28), "Годен", "Не годен")</f>
         <v>Годен</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="14">
         <v>3</v>
       </c>
-      <c r="T7" s="22" t="str">
+      <c r="T7" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U7" s="22" t="str">
+      <c r="U7" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V7" s="34" t="str">
+      <c r="V7" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W7" s="9"/>
       <c r="X7"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="16" t="s">
+      <c r="Y7"/>
+      <c r="Z7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B8" s="20">
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="15">
         <v>37935</v>
       </c>
-      <c r="G8" s="22" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="32">
         <v>1497891642</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="16">
         <v>7775524646</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="16">
         <v>7226148257</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="34">
         <v>7196632335</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="14">
         <v>2021</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="36">
         <v>19</v>
       </c>
-      <c r="Q8" s="36" t="str">
+      <c r="Q8" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="18">
         <v>2</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="14">
         <v>2</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="14">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="V8" s="34">
+      <c r="V8" s="23">
         <f t="shared" si="4"/>
         <v>1050</v>
       </c>
+      <c r="W8" s="9"/>
       <c r="X8"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="16" t="s">
+      <c r="Y8"/>
+      <c r="Z8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>38359</v>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="32">
         <v>2885068155</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="16">
         <v>7525247949</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="16">
         <v>7457096240</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="34">
         <v>7140919339</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="14">
         <v>2019</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="36">
         <v>18</v>
       </c>
-      <c r="Q9" s="36" t="str">
+      <c r="Q9" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="18">
         <v>4</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="14">
         <v>3</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="14">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="23">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
+      <c r="W9" s="9"/>
       <c r="X9"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="16" t="s">
+      <c r="Y9"/>
+      <c r="Z9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15">
         <v>38947</v>
       </c>
-      <c r="G10" s="22" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="32">
         <v>6340609434</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="16">
         <v>7454413277</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="16">
         <v>7779121948</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="34">
         <v>7892127515</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="14">
         <v>2023</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="36">
         <v>16</v>
       </c>
-      <c r="Q10" s="36" t="str">
+      <c r="Q10" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="14">
         <v>2</v>
       </c>
-      <c r="T10" s="22" t="str">
+      <c r="T10" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U10" s="22" t="str">
+      <c r="U10" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V10" s="34" t="str">
+      <c r="V10" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W10" s="9"/>
       <c r="X10"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="16" t="s">
+      <c r="Y10"/>
+      <c r="Z10" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="15">
         <v>38645</v>
       </c>
-      <c r="G11" s="22" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="32">
         <v>7094208199</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="16">
         <v>7803434538</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="16">
         <v>7244863769</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="34">
         <v>7465128542</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="14">
         <v>2019</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="36">
         <v>17</v>
       </c>
-      <c r="Q11" s="36" t="str">
+      <c r="Q11" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="18">
         <v>4</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="14">
         <v>3</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="14">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="23">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="9" t="s">
         <v>115</v>
       </c>
       <c r="X11"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="16" t="s">
+      <c r="Y11"/>
+      <c r="Z11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-    </row>
-    <row r="12" spans="2:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+    </row>
+    <row r="12" spans="2:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="15">
         <v>38520</v>
       </c>
-      <c r="G12" s="22" t="str">
+      <c r="G12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="32">
         <v>5534173723</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="16">
         <v>7500294900</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="16">
         <v>7258805357</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="34">
         <v>7288155996</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="14">
         <v>2019</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="36">
         <v>18</v>
       </c>
-      <c r="Q12" s="36" t="str">
+      <c r="Q12" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="18">
         <v>4</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="14">
         <v>5</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="14">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="14">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="V12" s="34">
+      <c r="V12" s="23">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
+      <c r="W12" s="9"/>
       <c r="X12"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="16" t="s">
+      <c r="Y12"/>
+      <c r="Z12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-    </row>
-    <row r="13" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+    </row>
+    <row r="13" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="15">
         <v>38530</v>
       </c>
-      <c r="G13" s="22" t="str">
+      <c r="G13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="32">
         <v>4766254145</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="16">
         <v>7363098384</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="16">
         <v>7537815375</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="34">
         <v>7185986746</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="14">
         <v>2023</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="O13" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="36">
         <v>17</v>
       </c>
-      <c r="Q13" s="36" t="str">
+      <c r="Q13" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="14">
         <v>2</v>
       </c>
-      <c r="T13" s="22" t="str">
+      <c r="T13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U13" s="22" t="str">
+      <c r="U13" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V13" s="34" t="str">
+      <c r="V13" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W13" s="9"/>
       <c r="X13"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B14" s="20">
+      <c r="Y13"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>39018</v>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="32">
         <v>1088928385</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="16">
         <v>7144186063</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="16">
         <v>7588480477</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="34">
         <v>7703032406</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="14">
         <v>2018</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="36">
         <v>16</v>
       </c>
-      <c r="Q14" s="36" t="str">
+      <c r="Q14" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="14">
         <v>3</v>
       </c>
-      <c r="T14" s="22" t="str">
+      <c r="T14" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U14" s="22" t="str">
+      <c r="U14" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V14" s="34" t="str">
+      <c r="V14" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W14" s="9"/>
       <c r="X14"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B15" s="20">
+      <c r="Y14"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="15">
         <v>39043</v>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="32">
         <v>8429069421</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="16">
         <v>7861460251</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="16">
         <v>7225397872</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="34">
         <v>7172864029</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="14">
         <v>2020</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="36">
         <v>16</v>
       </c>
-      <c r="Q15" s="36" t="str">
+      <c r="Q15" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="18">
         <v>3</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="14">
         <v>2</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="14">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="23">
         <f t="shared" si="4"/>
         <v>1050</v>
       </c>
+      <c r="W15" s="9"/>
       <c r="X15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B16" s="20">
+      <c r="Y15"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="15">
         <v>38098</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="32">
         <v>6059262678</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="16">
         <v>7235855172</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="16">
         <v>7154472842</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="34">
         <v>7135856212</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="14">
         <v>2020</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="O16" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="36">
         <v>19</v>
       </c>
-      <c r="Q16" s="36" t="str">
+      <c r="Q16" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R16" s="25">
+      <c r="R16" s="18">
         <v>3</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="14">
         <v>4</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="14">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="23">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
+      <c r="W16" s="9"/>
       <c r="X16"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-    </row>
-    <row r="17" spans="2:40" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
+      <c r="Y16"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+    </row>
+    <row r="17" spans="2:40" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>14</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="15">
         <v>38884</v>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="G17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="32">
         <v>7795638777</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="16">
         <v>7726456766</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="16">
         <v>7538899602</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="34">
         <v>7132887544</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="14">
         <v>2017</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="36">
         <v>17</v>
       </c>
-      <c r="Q17" s="36" t="str">
+      <c r="Q17" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="14">
         <v>5</v>
       </c>
-      <c r="T17" s="22" t="str">
+      <c r="T17" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U17" s="22" t="str">
+      <c r="U17" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V17" s="34" t="str">
+      <c r="V17" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W17" s="9"/>
       <c r="X17"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-    </row>
-    <row r="18" spans="2:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
+      <c r="Y17"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+    </row>
+    <row r="18" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>15</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="15">
         <v>38072</v>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="32">
         <v>2235558101</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="16">
         <v>7034952866</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="16">
         <v>7610585560</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="34">
         <v>7200803981</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="14">
         <v>2020</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="O18" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="36">
         <v>19</v>
       </c>
-      <c r="Q18" s="36" t="str">
+      <c r="Q18" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="18">
         <v>3</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="14">
         <v>4</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="14">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="14">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="V18" s="34">
+      <c r="V18" s="23">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
+      <c r="W18" s="9"/>
       <c r="X18"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-    </row>
-    <row r="19" spans="2:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
+      <c r="Y18"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+    </row>
+    <row r="19" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>16</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="15">
         <v>38447</v>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Ж</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="32">
         <v>2857172286</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="16">
         <v>7078395697</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="16">
         <v>7598942449</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="34">
         <v>7348799879</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="14">
         <v>2015</v>
       </c>
-      <c r="O19" s="34" t="s">
+      <c r="O19" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="36">
         <v>18</v>
       </c>
-      <c r="Q19" s="36" t="str">
+      <c r="Q19" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="14">
         <v>4</v>
       </c>
-      <c r="T19" s="22" t="str">
+      <c r="T19" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U19" s="22" t="str">
+      <c r="U19" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V19" s="34" t="str">
+      <c r="V19" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W19" s="9"/>
       <c r="X19"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-    </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
+      <c r="Y19"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
         <v>17</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="15">
         <v>38283</v>
       </c>
-      <c r="G20" s="22" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="32">
         <v>5683883413</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="16">
         <v>7478435230</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="16">
         <v>7542127321</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="34">
         <v>7575388705</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="14">
         <v>2021</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="36">
         <v>18</v>
       </c>
-      <c r="Q20" s="36" t="str">
+      <c r="Q20" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="18">
         <v>2</v>
       </c>
-      <c r="S20" s="22">
+      <c r="S20" s="14">
         <v>5</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="14">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="14">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="V20" s="34">
+      <c r="V20" s="23">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
+      <c r="W20" s="9"/>
       <c r="X20"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-    </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B21" s="20">
+      <c r="Y20"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
         <v>18</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="15">
         <v>37919</v>
       </c>
-      <c r="G21" s="22" t="str">
+      <c r="G21" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="32">
         <v>2822659508</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="16">
         <v>7615055754</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="16">
         <v>7953530317</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="34">
         <v>7458250647</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="14">
         <v>2018</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="O21" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="36">
         <v>19</v>
       </c>
-      <c r="Q21" s="36" t="str">
+      <c r="Q21" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="14">
         <v>2</v>
       </c>
-      <c r="T21" s="22" t="str">
+      <c r="T21" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U21" s="22" t="str">
+      <c r="U21" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V21" s="34" t="str">
+      <c r="V21" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W21" s="9"/>
       <c r="X21"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-    </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
+      <c r="Y21"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
         <v>19</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="15">
         <v>38900</v>
       </c>
-      <c r="G22" s="22" t="str">
+      <c r="G22" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="32">
         <v>9118656198</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="16">
         <v>7199609248</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="16">
         <v>7063992043</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="34">
         <v>7995057390</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="14">
         <v>2021</v>
       </c>
-      <c r="O22" s="34" t="s">
+      <c r="O22" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="36">
         <v>16</v>
       </c>
-      <c r="Q22" s="36" t="str">
+      <c r="Q22" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22" s="18">
         <v>2</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="14">
         <v>4</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="14">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="14">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22" s="23">
         <f t="shared" si="4"/>
         <v>1300</v>
       </c>
+      <c r="W22" s="9"/>
       <c r="X22"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-    </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B23" s="20">
+      <c r="Y22"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
         <v>20</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="15">
         <v>37980</v>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G23" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="32">
         <v>9945137527</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="16">
         <v>7723423086</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="16">
         <v>7455648571</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="34">
         <v>7697383018</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="14">
         <v>2020</v>
       </c>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="36">
         <v>19</v>
       </c>
-      <c r="Q23" s="36" t="str">
+      <c r="Q23" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R23" s="25">
+      <c r="R23" s="18">
         <v>3</v>
       </c>
-      <c r="S23" s="22">
+      <c r="S23" s="14">
         <v>4</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="14">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="U23" s="22">
+      <c r="U23" s="14">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="V23" s="34">
+      <c r="V23" s="23">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
+      <c r="W23" s="9"/>
       <c r="X23"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-    </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B24" s="20">
+      <c r="Y23"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
         <v>21</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="15">
         <v>38998</v>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="32">
         <v>2272438041</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="16">
         <v>7964136116</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="16">
         <v>7934619213</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="34">
         <v>7911044740</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="14">
         <v>2018</v>
       </c>
-      <c r="O24" s="34" t="s">
+      <c r="O24" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="36">
         <v>16</v>
       </c>
-      <c r="Q24" s="36" t="str">
+      <c r="Q24" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="14">
         <v>5</v>
       </c>
-      <c r="T24" s="22" t="str">
+      <c r="T24" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U24" s="22" t="str">
+      <c r="U24" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V24" s="34" t="str">
+      <c r="V24" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W24" s="9"/>
       <c r="X24"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-    </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B25" s="20">
+      <c r="Y24"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
         <v>22</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="15">
         <v>37701</v>
       </c>
-      <c r="G25" s="22" t="str">
+      <c r="G25" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="32">
         <v>2700674059</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="16">
         <v>7911336869</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="16">
         <v>7305083630</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="34">
         <v>7700923519</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="14">
         <v>2015</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="36">
         <v>20</v>
       </c>
-      <c r="Q25" s="36" t="str">
+      <c r="Q25" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="14">
         <v>2</v>
       </c>
-      <c r="T25" s="22" t="str">
+      <c r="T25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U25" s="22" t="str">
+      <c r="U25" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V25" s="34" t="str">
+      <c r="V25" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W25" s="9"/>
       <c r="X25"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-    </row>
-    <row r="26" spans="2:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20">
+      <c r="Y25"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+    </row>
+    <row r="26" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
         <v>23</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="15">
         <v>38726</v>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Ж</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="32">
         <v>4776180550</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="16">
         <v>7743483687</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="16">
         <v>7515235701</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="34">
         <v>7465438904</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="14">
         <v>2015</v>
       </c>
-      <c r="O26" s="34" t="s">
+      <c r="O26" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="36">
         <v>17</v>
       </c>
-      <c r="Q26" s="36" t="str">
+      <c r="Q26" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="14">
         <v>5</v>
       </c>
-      <c r="T26" s="22" t="str">
+      <c r="T26" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U26" s="22" t="str">
+      <c r="U26" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V26" s="34" t="str">
+      <c r="V26" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W26" s="9"/>
       <c r="X26"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-    </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B27" s="20">
+      <c r="Y26"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
         <v>24</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="15">
         <v>38501</v>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Ж</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="32">
         <v>6531503835</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="16">
         <v>7737106763</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27" s="16">
         <v>7481118783</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="34">
         <v>7825036487</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="14">
         <v>2017</v>
       </c>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P27" s="42">
+      <c r="P27" s="36">
         <v>18</v>
       </c>
-      <c r="Q27" s="36" t="str">
+      <c r="Q27" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="R27" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="14">
         <v>3</v>
       </c>
-      <c r="T27" s="22" t="str">
+      <c r="T27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U27" s="22" t="str">
+      <c r="U27" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V27" s="34" t="str">
+      <c r="V27" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W27" s="9"/>
       <c r="X27"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-    </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B28" s="20">
+      <c r="Y27"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
         <v>25</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="15">
         <v>38066</v>
       </c>
-      <c r="G28" s="22" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="32">
         <v>2914765298</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="16">
         <v>7216208114</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="16">
         <v>7123775046</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="34">
         <v>7545764524</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="14">
         <v>2018</v>
       </c>
-      <c r="O28" s="34" t="s">
+      <c r="O28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="36">
         <v>19</v>
       </c>
-      <c r="Q28" s="36" t="str">
+      <c r="Q28" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="R28" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S28" s="22">
+      <c r="S28" s="14">
         <v>2</v>
       </c>
-      <c r="T28" s="22" t="str">
+      <c r="T28" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U28" s="22" t="str">
+      <c r="U28" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V28" s="34" t="str">
+      <c r="V28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W28" s="9"/>
       <c r="X28"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-    </row>
-    <row r="29" spans="2:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20">
+      <c r="Y28"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+    </row>
+    <row r="29" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
         <v>26</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="15">
         <v>38732</v>
       </c>
-      <c r="G29" s="22" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="32">
         <v>2215478635</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="16">
         <v>7485581082</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="16">
         <v>7633269134</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="34">
         <v>7873848069</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="14">
         <v>2015</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P29" s="42">
+      <c r="P29" s="36">
         <v>17</v>
       </c>
-      <c r="Q29" s="36" t="str">
+      <c r="Q29" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Не годен</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="R29" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="14">
         <v>3</v>
       </c>
-      <c r="T29" s="22" t="str">
+      <c r="T29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U29" s="22" t="str">
+      <c r="U29" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V29" s="34" t="str">
+      <c r="V29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
+      <c r="W29" s="9"/>
       <c r="X29"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-    </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B30" s="26">
+      <c r="Y29"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
         <v>27</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="15">
         <v>38288</v>
       </c>
-      <c r="G30" s="27" t="str">
+      <c r="G30" s="14" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="32">
         <v>6109480708</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="16">
         <v>7832507342</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="16">
         <v>7226108062</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="34">
         <v>7364317557</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="14">
         <v>2016</v>
       </c>
-      <c r="O30" s="47" t="s">
+      <c r="O30" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="36">
         <v>18</v>
       </c>
-      <c r="Q30" s="36" t="str">
+      <c r="Q30" s="17" t="str">
         <f t="shared" si="5"/>
         <v>Годен</v>
       </c>
-      <c r="R30" s="25" t="s">
+      <c r="R30" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="S30" s="22">
+      <c r="S30" s="14">
         <v>2</v>
       </c>
-      <c r="T30" s="22" t="str">
+      <c r="T30" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="U30" s="22" t="str">
+      <c r="U30" s="14" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="V30" s="34" t="str">
+      <c r="V30" s="23" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-    </row>
-    <row r="31" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="28">
+      <c r="W30" s="9"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+    </row>
+    <row r="31" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="13">
         <v>28</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="26">
         <v>38882</v>
       </c>
-      <c r="G31" s="30" t="str">
+      <c r="G31" s="25" t="str">
         <f t="shared" si="1"/>
         <v>М</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="33">
         <v>4280441356</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="27">
         <v>7399759960</v>
       </c>
-      <c r="K31" s="49">
+      <c r="K31" s="27">
         <v>7669119812</v>
       </c>
-      <c r="L31" s="50">
+      <c r="L31" s="35">
         <v>7009015419</v>
       </c>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="25">
         <v>2021</v>
       </c>
-      <c r="O31" s="35" t="s">
+      <c r="O31" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="P31" s="51">
+      <c r="P31" s="37">
         <v>17</v>
       </c>
-      <c r="Q31" s="37" t="str">
+      <c r="Q31" s="28" t="str">
         <f>IF(AND(P31 &gt; 17,P31 &lt; 28), "Годен", "Не годен")</f>
         <v>Не годен</v>
       </c>
-      <c r="R31" s="33">
+      <c r="R31" s="29">
         <v>2</v>
       </c>
-      <c r="S31" s="22">
+      <c r="S31" s="25">
         <v>5</v>
       </c>
-      <c r="T31" s="30">
+      <c r="T31" s="25">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="U31" s="30">
+      <c r="U31" s="25">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="V31" s="35">
+      <c r="V31" s="30">
         <f t="shared" si="4"/>
         <v>1300</v>
       </c>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-    </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-    </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-    </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-    </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-    </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I36" s="7" t="s">
+      <c r="W31" s="9"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+    </row>
+    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+    </row>
+    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="13"/>
-      <c r="AN36" s="13"/>
-    </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I37" s="7"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-    </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I38" s="7"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-    </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I39" s="7"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-    </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I40" s="7"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-    </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I41" s="7"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="13"/>
-      <c r="AM41" s="13"/>
-      <c r="AN41" s="13"/>
-    </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I42" s="7"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="13"/>
-      <c r="AM42" s="13"/>
-      <c r="AN42" s="13"/>
-    </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I43" s="7"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-      <c r="AK43" s="13"/>
-      <c r="AL43" s="13"/>
-      <c r="AM43" s="13"/>
-      <c r="AN43" s="13"/>
-    </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I44" s="7"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="13"/>
-      <c r="AL44" s="13"/>
-      <c r="AM44" s="13"/>
-      <c r="AN44" s="13"/>
-    </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I45" s="7"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-      <c r="AL45" s="13"/>
-      <c r="AM45" s="13"/>
-      <c r="AN45" s="13"/>
-    </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I46" s="7"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13"/>
-      <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
-    </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I47" s="7"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-      <c r="AL47" s="13"/>
-      <c r="AM47" s="13"/>
-      <c r="AN47" s="13"/>
-    </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="I48" s="7"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-      <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
-      <c r="AN48" s="13"/>
-    </row>
-    <row r="49" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I49" s="7"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="13"/>
-    </row>
-    <row r="50" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I50" s="7"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13"/>
-      <c r="AH50" s="13"/>
-      <c r="AI50" s="13"/>
-      <c r="AJ50" s="13"/>
-      <c r="AK50" s="13"/>
-      <c r="AL50" s="13"/>
-      <c r="AM50" s="13"/>
-      <c r="AN50" s="13"/>
-    </row>
-    <row r="51" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I51" s="7"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="13"/>
-      <c r="AI51" s="13"/>
-      <c r="AJ51" s="13"/>
-      <c r="AK51" s="13"/>
-      <c r="AL51" s="13"/>
-      <c r="AM51" s="13"/>
-      <c r="AN51" s="13"/>
-    </row>
-    <row r="52" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="9:40" x14ac:dyDescent="0.3">
-      <c r="I59" s="8"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+    </row>
+    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+    </row>
+    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+    </row>
+    <row r="41" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I41" s="2"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+    </row>
+    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I42" s="2"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+    </row>
+    <row r="43" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+    </row>
+    <row r="44" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I44" s="2"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+    </row>
+    <row r="45" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I45" s="2"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I46" s="2"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+    </row>
+    <row r="47" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I47" s="2"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="I48" s="2"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+    </row>
+    <row r="49" spans="9:40" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+    </row>
+    <row r="50" spans="9:40" x14ac:dyDescent="0.25">
+      <c r="I50" s="2"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+    </row>
+    <row r="51" spans="9:40" x14ac:dyDescent="0.25">
+      <c r="I51" s="2"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+    </row>
+    <row r="52" spans="9:40" x14ac:dyDescent="0.25">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="9:40" x14ac:dyDescent="0.25">
+      <c r="I53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4373,11 +4329,11 @@
     <mergeCell ref="P2:V2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G31">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"М"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Ж"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"М"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4415,12 +4371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
